--- a/Fulton Hogan/35045/FH-ZU2-QU-ITP024 - Linemarking - Rev 0A.xlsx
+++ b/Fulton Hogan/35045/FH-ZU2-QU-ITP024 - Linemarking - Rev 0A.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan\35045\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B69017-C0CD-4F92-9B4D-43437D7921E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83866F77-8893-4B0C-9D9B-6C83AF252547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1005" windowWidth="28890" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="1335" windowWidth="28890" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1554,7 +1567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1565,16 +1578,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1592,19 +1608,16 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1621,30 +1634,8 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1996,6 +1987,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2147,9 +2141,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2553,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2990,45 +2981,45 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
     </row>
     <row r="13" spans="1:29" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60">
+      <c r="A13" s="61">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
@@ -3039,29 +3030,29 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="66"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="66"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="68"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="70"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="71"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="16"/>
@@ -3069,48 +3060,48 @@
       <c r="AC13" s="53"/>
     </row>
     <row r="14" spans="1:29" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60">
+      <c r="A14" s="61">
         <v>1.2</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="74" t="s">
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="76" t="s">
+      <c r="P14" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79"/>
       <c r="S14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="68"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="70"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="71"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="16"/>
@@ -3118,48 +3109,48 @@
       <c r="AC14" s="53"/>
     </row>
     <row r="15" spans="1:29" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
+      <c r="A15" s="61">
         <v>1.3</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="79" t="s">
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="66"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="68"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="70"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="71"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="16"/>
@@ -3167,48 +3158,48 @@
       <c r="AC15" s="53"/>
     </row>
     <row r="16" spans="1:29" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60">
+      <c r="A16" s="61">
         <v>1.3</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="81" t="s">
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="66"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="68"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="70"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="71"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="16"/>
@@ -3216,51 +3207,51 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:31" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60">
+      <c r="A17" s="61">
         <v>1.4</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="71" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="81" t="s">
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="86" t="s">
+      <c r="T17" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="89"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="53"/>
@@ -3268,48 +3259,48 @@
     </row>
     <row r="18" spans="1:31" ht="0.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:31" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89">
+      <c r="A19" s="90">
         <v>1.5</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="71" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="81" t="s">
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="65" t="s">
+      <c r="P19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="66"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="68"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="70"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="16"/>
@@ -3317,40 +3308,40 @@
       <c r="AC19" s="53"/>
     </row>
     <row r="20" spans="1:31" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89">
+      <c r="A20" s="90">
         <v>1.6</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="71" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="73"/>
       <c r="F20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="81" t="s">
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="83" t="s">
+      <c r="P20" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
       <c r="S20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,75 +3357,75 @@
       <c r="AC20" s="53"/>
     </row>
     <row r="21" spans="1:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92">
+      <c r="A21" s="93">
         <v>2</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
     </row>
     <row r="22" spans="1:31" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89">
+      <c r="A22" s="90">
         <v>2.1</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="71" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="81" t="s">
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="82"/>
+      <c r="M22" s="83"/>
       <c r="N22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="83" t="s">
+      <c r="P22" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="1" t="s">
         <v>68</v>
       </c>
@@ -3450,40 +3441,40 @@
       <c r="AC22" s="53"/>
     </row>
     <row r="23" spans="1:31" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89">
+      <c r="A23" s="90">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="71" t="s">
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="81" t="s">
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="82"/>
+      <c r="M23" s="83"/>
       <c r="N23" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="83" t="s">
+      <c r="P23" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
       <c r="S23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3499,48 +3490,48 @@
       <c r="AC23" s="53"/>
     </row>
     <row r="24" spans="1:31" ht="49.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89">
+      <c r="A24" s="90">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="71" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="72"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="81" t="s">
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="82"/>
+      <c r="M24" s="83"/>
       <c r="N24" s="11" t="s">
         <v>75</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="66"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T24" s="68"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="70"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="71"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="16"/>
@@ -3548,15 +3539,15 @@
       <c r="AC24" s="53"/>
     </row>
     <row r="25" spans="1:31" ht="119.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89">
+      <c r="A25" s="90">
         <v>2.4</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="71" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="8" t="s">
         <v>65</v>
       </c>
@@ -3577,19 +3568,19 @@
       <c r="O25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="65" t="s">
+      <c r="P25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="66"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="68"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="70"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="71"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="16"/>
@@ -3597,48 +3588,48 @@
       <c r="AC25" s="53"/>
     </row>
     <row r="26" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89">
+      <c r="A26" s="90">
         <v>2.5</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="63" t="s">
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="64"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="81" t="s">
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="82"/>
+      <c r="M26" s="83"/>
       <c r="N26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="66"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="68"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="70"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="71"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="16"/>
@@ -3646,50 +3637,50 @@
       <c r="AC26" s="53"/>
     </row>
     <row r="27" spans="1:31" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92">
+      <c r="A27" s="93">
         <v>3</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
     </row>
     <row r="28" spans="1:31" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89">
+      <c r="A28" s="90">
         <v>3.1</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="71" t="s">
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="72"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="8" t="s">
         <v>65</v>
       </c>
@@ -3700,29 +3691,29 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="98" t="s">
+      <c r="L28" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="99"/>
+      <c r="M28" s="100"/>
       <c r="N28" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="P28" s="74" t="s">
+      <c r="P28" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="75"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="76"/>
       <c r="S28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T28" s="68"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="70"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="16"/>
@@ -3798,39 +3789,39 @@
       <c r="AE30" s="5"/>
     </row>
     <row r="31" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="101"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
     </row>
     <row r="32" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -3842,35 +3833,35 @@
       <c r="E32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="64"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="14" t="s">
         <v>93</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
-      <c r="P32" s="73" t="s">
+      <c r="P32" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="64"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="65"/>
       <c r="AC32" s="23"/>
       <c r="AD32" s="23"/>
       <c r="AE32" s="2"/>
@@ -3885,37 +3876,37 @@
       <c r="E33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="64"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="14" t="s">
         <v>98</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
-      <c r="P33" s="73" t="s">
+      <c r="P33" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
       <c r="AE33" s="6"/>
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,37 +3919,37 @@
       <c r="E34" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="64"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="65"/>
       <c r="M34" s="14" t="s">
         <v>103</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
-      <c r="P34" s="73" t="s">
+      <c r="P34" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
       <c r="AE34" s="6"/>
     </row>
     <row r="35" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3971,31 +3962,31 @@
       <c r="E35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="104"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="105"/>
       <c r="AC35" s="23"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="2"/>
@@ -4213,65 +4204,65 @@
       <c r="AC41" s="16"/>
     </row>
     <row r="42" spans="1:31" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
     </row>
     <row r="43" spans="1:31" ht="347.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="108"/>
       <c r="AA43" s="53"/>
       <c r="AB43" s="53"/>
       <c r="AC43" s="53"/>
@@ -4326,15 +4317,6 @@
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="P33:AB33"/>
     <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:AB29"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:AA27"/>
@@ -4347,6 +4329,15 @@
     <mergeCell ref="T28:X28"/>
     <mergeCell ref="Z28:AA28"/>
     <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:AB29"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:K25"/>
